--- a/pabs_test.xlsx
+++ b/pabs_test.xlsx
@@ -69,24 +69,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -99,8 +99,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10058400" cy="6286500"/>
+          <a:off x="0" y="2286000"/>
+          <a:ext cx="9715500" cy="7772400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -401,7 +401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
